--- a/data/state_election_results/southcarolina_president.xlsx
+++ b/data/state_election_results/southcarolina_president.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirhamilton/Desktop/Gov_51/covid_election/data/state_election_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9B724A-52A7-D840-B53A-839D5A7D31DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AF9F55-F36F-6240-B85A-E38F6565C697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5500" yWindow="4200" windowWidth="26440" windowHeight="15440" xr2:uid="{3A7EB9C6-53A8-DD4C-847F-DB0869366380}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>County</t>
-  </si>
-  <si>
     <t>Abbeville</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>biden.percent</t>
+  </si>
+  <si>
+    <t>county</t>
   </si>
 </sst>
 </file>
@@ -554,32 +554,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A637BB7-9B5C-714B-8810-879B4556333D}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>8215</v>
@@ -596,7 +594,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>51589</v>
@@ -613,7 +611,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>835</v>
@@ -630,7 +628,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>67565</v>
@@ -647,7 +645,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>2417</v>
@@ -664,7 +662,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>5492</v>
@@ -681,7 +679,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>53194</v>
@@ -698,7 +696,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>4305</v>
@@ -715,7 +713,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>93297</v>
@@ -732,7 +730,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>18043</v>
@@ -749,7 +747,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>8660</v>
@@ -766,7 +764,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>11297</v>
@@ -783,7 +781,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>8361</v>
@@ -800,7 +798,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <v>10440</v>
@@ -817,7 +815,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>16832</v>
@@ -834,7 +832,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <v>6582</v>
@@ -851,7 +849,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <v>41913</v>
@@ -868,7 +866,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <v>8184</v>
@@ -885,7 +883,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <v>4625</v>
@@ -902,7 +900,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>32615</v>
@@ -919,7 +917,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>20487</v>
@@ -936,7 +934,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>150021</v>
@@ -953,7 +951,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>19431</v>
@@ -970,7 +968,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <v>3906</v>
@@ -987,7 +985,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <v>118821</v>
@@ -1004,7 +1002,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <v>7078</v>
@@ -1021,7 +1019,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <v>20471</v>
@@ -1038,7 +1036,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <v>30312</v>
@@ -1055,7 +1053,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <v>20004</v>
@@ -1072,7 +1070,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <v>3008</v>
@@ -1089,7 +1087,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <v>92817</v>
@@ -1106,7 +1104,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <v>2958</v>
@@ -1123,7 +1121,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <v>5711</v>
@@ -1140,7 +1138,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <v>5044</v>
@@ -1157,7 +1155,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <v>11443</v>
@@ -1174,7 +1172,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>29698</v>
@@ -1191,7 +1189,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <v>13603</v>
@@ -1208,7 +1206,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <v>42907</v>
@@ -1225,7 +1223,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <v>58313</v>
@@ -1242,7 +1240,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <v>6210</v>
@@ -1259,7 +1257,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <v>93560</v>
@@ -1276,7 +1274,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <v>21000</v>
@@ -1293,7 +1291,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <v>8183</v>
@@ -1310,7 +1308,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <v>5532</v>
@@ -1327,7 +1325,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <v>82727</v>
@@ -1344,7 +1342,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <v>57397</v>
